--- a/biology/Botanique/Stelis/Stelis.xlsx
+++ b/biology/Botanique/Stelis/Stelis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stelis est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae, comptant plus de 500 espèces d'orchidées épiphytes d'Amérique tropicale[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stelis est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae, comptant plus de 500 espèces d'orchidées épiphytes d'Amérique tropicale
 </t>
         </is>
       </c>
@@ -511,27 +523,29 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Humboltia Ruiz &amp; Pav. (1794)[3]
-Physosiphon Lindl. (1835)[4]
-Dialissa Lindl. (1845)[5]
-Crocodeilanthe Rchb.f. &amp; Warsz. (1854)[6]
-Pseudostelis Schltr. (1922)[7]
-Physothallis Garay (1953)[8]
-Steliopsis Brieger (1976)[9]
-Apatostelis Garay (1979)[10]
-Salpistele Dressler (1979)[11]
-Condylago Luer (1982)[12]
-Mystacorchis Szlach. &amp; Marg. (2001)[13]
-Dracontia (Luer) Luer (2004)[14]
-Elongatia (Luer) Luer (2004)[14]
-Unciferia (Luer) Luer (2004)[15]
-Loddigesia Luer (2006)[16]
-Lomax Luer (2006)[17]
-Effusiella Luer (2007)[18]
-Niphantha Luer (2010)[19]
-Lalexia Luer (2011)[20]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Humboltia Ruiz &amp; Pav. (1794)
+Physosiphon Lindl. (1835)
+Dialissa Lindl. (1845)
+Crocodeilanthe Rchb.f. &amp; Warsz. (1854)
+Pseudostelis Schltr. (1922)
+Physothallis Garay (1953)
+Steliopsis Brieger (1976)
+Apatostelis Garay (1979)
+Salpistele Dressler (1979)
+Condylago Luer (1982)
+Mystacorchis Szlach. &amp; Marg. (2001)
+Dracontia (Luer) Luer (2004)
+Elongatia (Luer) Luer (2004)
+Unciferia (Luer) Luer (2004)
+Loddigesia Luer (2006)
+Lomax Luer (2006)
+Effusiella Luer (2007)
+Niphantha Luer (2010)
+Lalexia Luer (2011)</t>
         </is>
       </c>
     </row>
@@ -561,8 +575,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Guyane française
-Stelis guianensis  Rolfe - B
+          <t>Guyane française</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stelis guianensis  Rolfe - B
 Stelis ophioglossoides O.P. Swartz - B
 Stelis santiagoensis Mansfeld - B</t>
         </is>
@@ -592,7 +611,9 @@
           <t>Guadeloupe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stelis dussii: (Endémique)</t>
         </is>
@@ -622,7 +643,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Swartz O.P., 1800. Journal für die Botanik 1799(2): 239, pl. 2, f. 3.</t>
         </is>
